--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06438733333333334</v>
+        <v>0.044816</v>
       </c>
       <c r="H2">
-        <v>0.193162</v>
+        <v>0.134448</v>
       </c>
       <c r="I2">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="J2">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5010136666666667</v>
+        <v>1.238415</v>
       </c>
       <c r="N2">
-        <v>1.503041</v>
+        <v>3.715245</v>
       </c>
       <c r="O2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q2">
-        <v>0.03225893396022222</v>
+        <v>0.05550080664</v>
       </c>
       <c r="R2">
-        <v>0.290330405642</v>
+        <v>0.4995072597600001</v>
       </c>
       <c r="S2">
-        <v>0.01304334703152666</v>
+        <v>0.01351491852721923</v>
       </c>
       <c r="T2">
-        <v>0.01304334703152665</v>
+        <v>0.01351491852721923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,51 +596,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06438733333333334</v>
+        <v>0.044816</v>
       </c>
       <c r="H3">
-        <v>0.193162</v>
+        <v>0.134448</v>
       </c>
       <c r="I3">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="J3">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.238415</v>
+        <v>1.602242</v>
       </c>
       <c r="N3">
-        <v>3.715245</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O3">
-        <v>0.5866446172313401</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P3">
-        <v>0.58664461723134</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q3">
-        <v>0.07973823941000001</v>
+        <v>0.07180607747199999</v>
       </c>
       <c r="R3">
-        <v>0.7176441546900001</v>
+        <v>0.646254697248</v>
       </c>
       <c r="S3">
-        <v>0.03224079039902721</v>
+        <v>0.01748539067347277</v>
       </c>
       <c r="T3">
-        <v>0.03224079039902721</v>
+        <v>0.01748539067347277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06438733333333334</v>
+        <v>0.8224453333333334</v>
       </c>
       <c r="H4">
-        <v>0.193162</v>
+        <v>2.467336</v>
       </c>
       <c r="I4">
-        <v>0.0549579582800693</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="J4">
-        <v>0.0549579582800693</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3715853333333333</v>
+        <v>1.238415</v>
       </c>
       <c r="N4">
-        <v>1.114756</v>
+        <v>3.715245</v>
       </c>
       <c r="O4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q4">
-        <v>0.02392538871911111</v>
+        <v>1.01852863748</v>
       </c>
       <c r="R4">
-        <v>0.215328498472</v>
+        <v>9.166757737320001</v>
       </c>
       <c r="S4">
-        <v>0.009673820849515433</v>
+        <v>0.2480203872075076</v>
       </c>
       <c r="T4">
-        <v>0.009673820849515433</v>
+        <v>0.2480203872075075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>2.467336</v>
       </c>
       <c r="I5">
-        <v>0.7020001291709189</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="J5">
-        <v>0.702000129170919</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.5010136666666667</v>
+        <v>1.602242</v>
       </c>
       <c r="N5">
-        <v>1.503041</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q5">
-        <v>0.4120563520862223</v>
+        <v>1.317756455770666</v>
       </c>
       <c r="R5">
-        <v>3.708507168776</v>
+        <v>11.859808101936</v>
       </c>
       <c r="S5">
-        <v>0.1666079233564513</v>
+        <v>0.320884906303728</v>
       </c>
       <c r="T5">
-        <v>0.1666079233564513</v>
+        <v>0.320884906303728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8224453333333334</v>
+        <v>0.5784016666666667</v>
       </c>
       <c r="H6">
-        <v>2.467336</v>
+        <v>1.735205</v>
       </c>
       <c r="I6">
-        <v>0.7020001291709189</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="J6">
-        <v>0.702000129170919</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>3.715245</v>
       </c>
       <c r="O6">
-        <v>0.5866446172313401</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P6">
-        <v>0.58664461723134</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q6">
-        <v>1.01852863748</v>
+        <v>0.716301300025</v>
       </c>
       <c r="R6">
-        <v>9.166757737320001</v>
+        <v>6.446711700225001</v>
       </c>
       <c r="S6">
-        <v>0.411824597073825</v>
+        <v>0.1744254596797531</v>
       </c>
       <c r="T6">
-        <v>0.411824597073825</v>
+        <v>0.174425459679753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,238 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8224453333333334</v>
+        <v>0.5784016666666667</v>
       </c>
       <c r="H7">
-        <v>2.467336</v>
+        <v>1.735205</v>
       </c>
       <c r="I7">
-        <v>0.7020001291709189</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="J7">
-        <v>0.702000129170919</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3715853333333333</v>
+        <v>1.602242</v>
       </c>
       <c r="N7">
-        <v>1.114756</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O7">
-        <v>0.1760222022844629</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P7">
-        <v>0.1760222022844629</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q7">
-        <v>0.3056086233351111</v>
+        <v>0.9267394432033332</v>
       </c>
       <c r="R7">
-        <v>2.750477610016</v>
+        <v>8.34065498883</v>
       </c>
       <c r="S7">
-        <v>0.1235676087406426</v>
+        <v>0.2256689376083194</v>
       </c>
       <c r="T7">
-        <v>0.1235676087406426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.2847416666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.854225</v>
-      </c>
-      <c r="I8">
-        <v>0.2430419125490117</v>
-      </c>
-      <c r="J8">
-        <v>0.2430419125490117</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5010136666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.503041</v>
-      </c>
-      <c r="O8">
-        <v>0.237333180484197</v>
-      </c>
-      <c r="P8">
-        <v>0.237333180484197</v>
-      </c>
-      <c r="Q8">
-        <v>0.1426594664694444</v>
-      </c>
-      <c r="R8">
-        <v>1.283935198225</v>
-      </c>
-      <c r="S8">
-        <v>0.05768191009621901</v>
-      </c>
-      <c r="T8">
-        <v>0.05768191009621901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.2847416666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.854225</v>
-      </c>
-      <c r="I9">
-        <v>0.2430419125490117</v>
-      </c>
-      <c r="J9">
-        <v>0.2430419125490117</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>1.238415</v>
-      </c>
-      <c r="N9">
-        <v>3.715245</v>
-      </c>
-      <c r="O9">
-        <v>0.5866446172313401</v>
-      </c>
-      <c r="P9">
-        <v>0.58664461723134</v>
-      </c>
-      <c r="Q9">
-        <v>0.352628351125</v>
-      </c>
-      <c r="R9">
-        <v>3.173655160125</v>
-      </c>
-      <c r="S9">
-        <v>0.1425792297584878</v>
-      </c>
-      <c r="T9">
-        <v>0.1425792297584878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.2847416666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.854225</v>
-      </c>
-      <c r="I10">
-        <v>0.2430419125490117</v>
-      </c>
-      <c r="J10">
-        <v>0.2430419125490117</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.3715853333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.114756</v>
-      </c>
-      <c r="O10">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="P10">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="Q10">
-        <v>0.1058058271222222</v>
-      </c>
-      <c r="R10">
-        <v>0.9522524440999999</v>
-      </c>
-      <c r="S10">
-        <v>0.04278077269430489</v>
-      </c>
-      <c r="T10">
-        <v>0.04278077269430489</v>
+        <v>0.2256689376083194</v>
       </c>
     </row>
   </sheetData>
